--- a/generated_table.xlsx
+++ b/generated_table.xlsx
@@ -611,10 +611,26 @@
           <t>48ч 0мин</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>16ч 0мин</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>8ч 0мин</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>16ч 0мин</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>8ч 0мин</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -672,10 +688,26 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2ч 0мин</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>6ч 0мин</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2ч 0мин</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>6ч 0мин</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -721,28 +753,20 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>16ч 0мин</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>8ч 0мин</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>16ч 0мин</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8ч 0мин</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -786,28 +810,20 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>2ч 0мин</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>6ч 0мин</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2ч 0мин</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>6ч 0мин</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -847,16 +863,8 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>16ч 0мин</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>8ч 0мин</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -896,16 +904,8 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2ч 0мин</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>6ч 0мин</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
